--- a/data/eBooks-main/current/xamarin-forms/Enterprise-Application-Patterns-using-XamarinForms.pdf.hwaifs/tables/py/gmft/df.tables-4.xlsx
+++ b/data/eBooks-main/current/xamarin-forms/Enterprise-Application-Patterns-using-XamarinForms.pdf.hwaifs/tables/py/gmft/df.tables-4.xlsx
@@ -470,7 +470,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>by app. Contains value that</t>
+          <t>by app. value that</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>converters apply custom logic to a binding. Contains the EntryLineColorEffect class, which is used to change the border</t>
+          <t>Contains converters apply custom logic to a binding. Contains the EntryLineColorEffect class, which is used to change the border</t>
         </is>
       </c>
     </row>
